--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED221_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED221_주단위상세일정.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[2021.09.02_웹퍼블리셔과정_박석호강사]\TOMCO2\000.커리큐럼\주단위상세일정엑셀\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -216,11 +216,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>개발환경셋팅: VS Code + Server + GitHub
-HTML 기초</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>분석 / 설계 + 레이아웃</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -230,11 +225,6 @@
   </si>
   <si>
     <t>메인구현 : 상세구현하기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 기본 및 응용연습
-도깨비 PJ + 미디어쿼리 + 와이어프레이밍</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -279,6 +269,16 @@
     <t>취업세미나
 3/29(화)
 7,8교시</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 기본 및 응용연습
+도깨비 PJ + 미디어쿼리 + 와이어프레이밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발환경셋팅: VS Code + Server + GitHub
+HTML 기초 + CSS 기초</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -987,7 +987,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1008,7 +1008,7 @@
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
@@ -1083,7 +1083,7 @@
       <c r="H5" s="26"/>
       <c r="I5" s="12"/>
       <c r="J5" s="14" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K5" s="27"/>
     </row>
@@ -1114,7 +1114,7 @@
         <v>19</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K6" s="23"/>
     </row>
@@ -1136,11 +1136,11 @@
         <v>4</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" s="21" t="s">
         <v>20</v>
@@ -1171,7 +1171,7 @@
         <v>44642</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" s="21" t="s">
         <v>22</v>
@@ -1202,13 +1202,13 @@
         <v>44649</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" s="21" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
@@ -1236,7 +1236,7 @@
         <v>24</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K10" s="25"/>
     </row>
@@ -1264,10 +1264,10 @@
         <v>44663</v>
       </c>
       <c r="I11" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="21" t="s">
         <v>38</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>40</v>
       </c>
       <c r="K11" s="23"/>
     </row>
@@ -1295,13 +1295,13 @@
         <v>44671</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J12" s="21" t="s">
         <v>21</v>
       </c>
       <c r="K12" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1327,7 +1327,7 @@
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B15" s="31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>

--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED221_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED221_주단위상세일정.xlsx
@@ -119,17 +119,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>HTML5 + CSS3 기본 및 응용연습
-CGV PJ + 미디어쿼리 + 애니메이션</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>포트폴리오 발표 및 검수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript 기본 / CSS 애니메이션, 
-VOGUE PJ / XD 프로토타이핑</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -272,13 +262,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>개발환경셋팅: VS Code + Server + GitHub
+HTML 기초 + CSS 기초</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기본 / CSS 애니메이션, 
+CGV PJ / VOGUE PJ / XD 프로토타이핑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>HTML5 + CSS3 기본 및 응용연습
 도깨비 PJ + 미디어쿼리 + 와이어프레이밍</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>개발환경셋팅: VS Code + Server + GitHub
-HTML 기초 + CSS 기초</t>
+    <t>HTML5 + CSS3 기본 및 응용연습
+도깨비 PJ + 미디어쿼리 + 애니메이션</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -373,7 +373,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,6 +410,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -568,7 +574,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -647,10 +653,34 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -672,6 +702,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -987,7 +1023,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1007,39 +1043,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
+      <c r="B2" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1060,92 +1096,92 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="29">
         <v>44614</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="29">
         <v>44617</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="31">
         <f t="shared" ref="F5:F8" si="0">DAYS360(C5,E5)+1</f>
         <v>4</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="27"/>
+      <c r="G5" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="35"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="29">
         <v>44620</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="29">
         <v>44624</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="31">
         <f>DAYS360(C6,E6)</f>
         <v>4</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="22">
+      <c r="G6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="43">
         <v>44623</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="23"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="11">
         <v>44627</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="11">
         <v>44631</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="13">
         <f>DAYS360(C7,E7)</f>
         <v>4</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="23"/>
+      <c r="G7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="27"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16" t="s">
@@ -1165,16 +1201,16 @@
         <v>5</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H8" s="22">
         <v>44642</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="K8" s="23"/>
     </row>
@@ -1202,13 +1238,13 @@
         <v>44649</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
@@ -1229,14 +1265,14 @@
         <v>5</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K10" s="25"/>
     </row>
@@ -1258,16 +1294,16 @@
         <v>5</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H11" s="22">
         <v>44663</v>
       </c>
       <c r="I11" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>38</v>
       </c>
       <c r="K11" s="23"/>
     </row>
@@ -1289,19 +1325,19 @@
         <v>3</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H12" s="22">
         <v>44671</v>
       </c>
       <c r="I12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="25" t="s">
         <v>37</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="25" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1313,30 +1349,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
+      <c r="B15" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="5">
